--- a/imageCreationExcel/back/0901-1/0901-1_15.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_15.xlsx
@@ -486,24 +486,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8471535341001284</v>
+        <v>0.8316269704125079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.070274237327824</v>
+        <v>4.549763220443397</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -516,11 +516,11 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_9_gamma0.85_contrast1.1.jpg</t>
+          <t>1_7_contrast0.83_brightness4.5.jpg</t>
         </is>
       </c>
     </row>
@@ -530,24 +530,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.45997871905965</v>
+        <v>0.5607860087666222</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8751682498086741</v>
+        <v>18.98118825452003</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_P_brightness11.0_contrast0.88.jpg</t>
+          <t>2_I_gamma0.56_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1597968589284086</v>
+        <v>0.3833758609924557</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8540188474558797</v>
+        <v>1.032110924675824</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -599,14 +599,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9.990722642033612</v>
+        <v>7.707045827630198</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_2_sharpness0.16_contrast0.85_equalization10.0.jpg</t>
+          <t>3_9_sharpness0.38_contrast1.0_equalization7.7.jpg</t>
         </is>
       </c>
     </row>
@@ -616,24 +616,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.12040447166081</v>
+        <v>28.0330189188668</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>20.19980594206853</v>
+        <v>1.041306882227393</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_E_contrast1.1_brightness20.0.jpg</t>
+          <t>4_B_brightness28.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -669,30 +669,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.80352464958897</v>
+        <v>0.3354356368234355</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9573756654553921</v>
+        <v>1.056108561803544</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.6240423511112081</v>
+        <v>27.47815092669387</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_7_sharpness0.8_contrast0.96_gamma0.62.jpg</t>
+          <t>5_7_sharpness0.34_gamma1.1_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -711,32 +711,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.149222730767369</v>
+        <v>1.073367492070682</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.4417226836300772</v>
+        <v>1.072173139396178</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5.783293441796317</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_3_contrast1.1_sharpness0.44.jpg</t>
+          <t>6_8_contrast1.1_gamma1.1_equalization5.8.jpg</t>
         </is>
       </c>
     </row>
@@ -746,41 +744,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6135799419900008</v>
+        <v>0.9428958708540518</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.51951799693287</v>
+        <v>7.366761005475711</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8590907236930687</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_0_gamma0.61_sharpness0.52.jpg</t>
+          <t>7_S_contrast0.94_brightness7.4_gamma0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -790,16 +786,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9906038385113296</v>
+        <v>22.73408918915895</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -807,7 +803,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.089910368805791</v>
+        <v>0.8552949161952457</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -824,7 +820,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_S_gamma0.99_contrast1.1.jpg</t>
+          <t>8_P_brightness23.0_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -843,32 +839,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.05592234461845069</v>
+        <v>0.1057033945158078</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>12.78893567877454</v>
+        <v>1.166634960523604</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1.009765510350437</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_0_sharpness0.056_equalization13.0.jpg</t>
+          <t>9_0_sharpness0.11_contrast1.2_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -878,16 +872,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.083521253931123</v>
+        <v>1.01068995232207</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -895,24 +889,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16.57916090223309</v>
+        <v>8.186461689651114</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1455390715476982</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_3_contrast1.1_brightness17.0.jpg</t>
+          <t>10_P_gamma1.0_brightness8.2_sharpness0.15.jpg</t>
         </is>
       </c>
     </row>
@@ -922,39 +914,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.7492781283719436</v>
+        <v>25.88620325668207</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8525573481858505</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0.4200598801083479</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="H12" t="n">
-        <v>13.26829041182849</v>
+        <v>0.5656538559776512</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_I_gamma0.75_sharpness0.42_brightness13.0.jpg</t>
+          <t>11_E_brightness26.0_contrast0.85_sharpness0.57.jpg</t>
         </is>
       </c>
     </row>
@@ -964,39 +956,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.612254085841428</v>
+        <v>1.015438761125591</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9134882636056952</v>
+        <v>6.347098739821978</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>0.8737304467789955</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_9_sharpness0.61_gamma0.91_contrast0.87.jpg</t>
+          <t>12_1_contrast1.0_equalization6.3.jpg</t>
         </is>
       </c>
     </row>
@@ -1006,39 +1000,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8905134239141056</v>
+        <v>0.2751085738219942</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.159645996402704</v>
+        <v>1.045156292365694</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>12.58748922865325</v>
+        <v>1.035821130002732</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_contrast0.89_sharpness0.16_equalization13.0.jpg</t>
+          <t>13_8_sharpness0.28_contrast1.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1048,39 +1042,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.131691327722735</v>
+        <v>0.1543624165024269</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.7407320733980913</v>
+        <v>21.53755408811951</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>21.59677837344249</v>
+        <v>0.5081755690861286</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_I_contrast1.1_gamma0.74_brightness22.0.jpg</t>
+          <t>14_B_sharpness0.15_brightness22.0_gamma0.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1090,39 +1084,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7851753139959043</v>
+        <v>0.6307325909467302</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.06867965366298423</v>
+        <v>1.175353943082329</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1.137123625857997</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_S_gamma0.79_sharpness0.069_contrast1.1.jpg</t>
+          <t>15_T_sharpness0.63_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1132,39 +1128,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.089139727160746</v>
+        <v>0.9439645563493467</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.090753641722229</v>
+        <v>10.69281173101005</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8.681434645078287</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_T_contrast1.1_gamma1.1_equalization8.7.jpg</t>
+          <t>16_8_sharpness0.94_brightness11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1174,39 +1172,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.141631553557932</v>
+        <v>0.7748666047379615</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5055476461928211</v>
+        <v>2.749730809331944</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10.14830559685219</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_7_contrast1.1_sharpness0.51_equalization10.0.jpg</t>
+          <t>17_P_gamma0.77_brightness2.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1221,34 +1221,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9706349842912364</v>
+        <v>0.8349102033602124</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.10231072831797</v>
+        <v>13.59550227832843</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>15.96531051474803</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_3_gamma0.97_contrast1.1_equalization16.0.jpg</t>
+          <t>18_3_contrast0.83_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1267,7 +1269,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5.783774940939584</v>
+        <v>17.39319341385669</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1275,7 +1277,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.710246612476216</v>
+        <v>0.6437142468355281</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1288,11 +1290,11 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_S_brightness5.8_gamma0.71.jpg</t>
+          <t>19_0_brightness17.0_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -1302,39 +1304,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9363041750481079</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0.1911420738257779</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F21" t="n">
-        <v>0.8812662154713469</v>
+        <v>0.03605991354407567</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>30.38893609201325</v>
+        <v>27.52475601865105</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_sharpness0.19_contrast0.88_equalization30.0.jpg</t>
+          <t>20_7_gamma0.94_sharpness0.036_brightness28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1346,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1353,15 +1355,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8582296232596963</v>
+        <v>0.1322636146355307</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.312098631462432</v>
+        <v>0.5840335179620291</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1369,14 +1371,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.8432778658584351</v>
+        <v>1.097498531528316</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_Q_sharpness0.86_brightness3.3_contrast0.84.jpg</t>
+          <t>21_B_sharpness0.13_gamma0.58_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1391,11 +1393,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.4916344780329589</v>
+        <v>1.125943130564607</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1403,22 +1405,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.081373173814115</v>
+        <v>0.9550738623039213</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>27.43105799541341</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_E_sharpness0.49_gamma1.1_equalization27.0.jpg</t>
+          <t>22_E_contrast1.1_gamma0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -1428,24 +1432,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1.049561488633354</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0.8171839934534905</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="F24" t="n">
-        <v>20.97267065810513</v>
+        <v>0.6687947608235956</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1462,7 +1466,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_1_sharpness0.82_equalization21.0.jpg</t>
+          <t>23_S_gamma1.0_sharpness0.67.jpg</t>
         </is>
       </c>
     </row>
@@ -1477,19 +1481,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12.5413398295896</v>
+        <v>0.8802770495640611</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8015429727955207</v>
+        <v>22.01318895535998</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1506,7 +1510,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_8_brightness13.0_sharpness0.8.jpg</t>
+          <t>24_8_gamma0.88_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1516,39 +1520,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.7028154677516685</v>
+        <v>0.8712505334116531</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.2744798050121671</v>
+        <v>0.9599484568655926</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>22.66196429535281</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_gamma0.7_sharpness0.27_equalization23.0.jpg</t>
+          <t>25_9_contrast0.87_gamma0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1564,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1567,30 +1573,32 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8864366164447868</v>
+        <v>0.4856766839945432</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9773616361062266</v>
+        <v>21.73201291063904</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>17.53857084256844</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_3_sharpness0.89_contrast0.98_equalization18.0.jpg</t>
+          <t>26_2_sharpness0.49_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1600,16 +1608,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.095899376774832</v>
+        <v>1.094206106934827</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1617,7 +1625,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>14.17275977065934</v>
+        <v>24.24873848934456</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1634,7 +1642,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_0_contrast1.1_equalization14.0.jpg</t>
+          <t>27_2_gamma1.1_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1644,39 +1652,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13.46062998036547</v>
+        <v>0.9068031830871452</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.08021984932888937</v>
+        <v>1.12289727114977</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.8448623207770258</v>
+        <v>5.867585596647324</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_2_brightness13.0_sharpness0.08_gamma0.84.jpg</t>
+          <t>28_E_gamma0.91_contrast1.1_equalization5.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1686,24 +1694,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9930717487016955</v>
+        <v>0.5460984882610251</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.013941351353084</v>
+        <v>6.975037626321955</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1716,11 +1724,11 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_8_contrast0.99_brightness7.0.jpg</t>
+          <t>29_E_gamma0.55_equalization7.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1730,24 +1738,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.7587738857804989</v>
+        <v>18.20246161290376</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8276078783152498</v>
+        <v>0.6218883143770733</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1764,7 +1772,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_Q_gamma0.76_contrast0.83.jpg</t>
+          <t>30_8_brightness18.0_sharpness0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -1774,39 +1782,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.2313938624610101</v>
+        <v>0.6127731402893174</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8019016279033806</v>
+        <v>0.8006008848192981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>0.9907875760984736</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_7_brightness0.23_contrast0.8_sharpness0.99.jpg</t>
+          <t>31_B_gamma0.61_sharpness0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1816,41 +1826,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8906595392053751</v>
+        <v>0.9872487261427858</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8968970565995744</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>8.235328267833269</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H33" t="n">
+        <v>16.02402363390991</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_T_gamma0.89_equalization8.2.jpg</t>
+          <t>32_C_contrast0.99_sharpness0.9_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1868,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1869,15 +1877,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7243632192285668</v>
+        <v>0.8321698541155967</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.121819607211406</v>
+        <v>0.223025471995228</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1885,14 +1893,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>30.102400958818</v>
+        <v>31.35062140636803</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_C_gamma0.72_contrast1.1_equalization30.0.jpg</t>
+          <t>33_E_gamma0.83_sharpness0.22_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1902,41 +1910,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.5389144911459861</v>
+        <v>0.1979124993259322</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>17.96890160046356</v>
+        <v>1.696225299292745</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.806522089680801</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_E_gamma0.54_equalization18.0.jpg</t>
+          <t>34_8_sharpness0.2_brightness1.7_contrast0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -1946,39 +1952,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9739689004346547</v>
+        <v>24.02617919206214</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.042825013884906</v>
+        <v>1.162270869833458</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9.404826530589638</v>
+        <v>0.5433436331667418</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_0_contrast0.97_sharpness0.043_brightness9.4.jpg</t>
+          <t>35_B_brightness24.0_contrast1.2_gamma0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -1988,39 +1994,41 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8353261343454839</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>15.57155604837965</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F37" t="n">
-        <v>0.8911062027405898</v>
+        <v>26.2368960533222</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>0.6798769121052169</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_9_brightness16.0_contrast0.89_sharpness0.68.jpg</t>
+          <t>36_8_contrast0.84_brightness26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2038,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2039,30 +2047,32 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8709365301864892</v>
+        <v>0.9310183530116509</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6552156103302866</v>
+        <v>15.60934484375705</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>6.864439446293842</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_I_contrast0.87_gamma0.66_equalization6.9.jpg</t>
+          <t>37_3_contrast0.93_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2072,41 +2082,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9728572020302571</v>
+        <v>1.145252400578112</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.806518886299891</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>22.34489005552637</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H39" t="n">
+        <v>24.19975623660653</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_C_sharpness0.97_equalization22.0.jpg</t>
+          <t>38_3_contrast1.1_gamma0.81_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2116,24 +2124,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8254609525431924</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>12.75838337819907</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F40" t="n">
-        <v>0.5720113419746017</v>
+        <v>3.621966011973701</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2146,11 +2154,11 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_I_brightness13.0_gamma0.57.jpg</t>
+          <t>39_E_gamma0.83_brightness3.6.jpg</t>
         </is>
       </c>
     </row>
@@ -2160,24 +2168,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.6344238449912669</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>0.6161013172246027</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="F41" t="n">
-        <v>25.3984566596416</v>
+        <v>0.4608736789198336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2194,7 +2202,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_S_sharpness0.62_equalization25.0.jpg</t>
+          <t>40_2_gamma0.63_sharpness0.46.jpg</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2212,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2213,32 +2221,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5860737810886406</v>
+        <v>0.8191528042641508</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9889214207981137</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>13.77922602567139</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H42" t="n">
+        <v>23.53508276464296</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_Q_sharpness0.59_equalization14.0.jpg</t>
+          <t>41_3_sharpness0.82_contrast0.99_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2248,16 +2254,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.126660667290533</v>
+        <v>0.5039879998522164</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2265,22 +2271,24 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>13.85682545797879</v>
+        <v>18.54927960598059</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>0.7395440875459349</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_S_contrast1.1_brightness14.0_sharpness0.74.jpg</t>
+          <t>42_E_sharpness0.5_brightness19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2290,24 +2298,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>15.55302183455</v>
+        <v>0.4910796071938293</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.7380333436891545</v>
+        <v>1.056867973339055</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2324,7 +2332,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_S_brightness16.0_sharpness0.74.jpg</t>
+          <t>43_9_sharpness0.49_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,16 +2342,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.8981692433154917</v>
+        <v>0.6225669600045415</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2351,24 +2359,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9713644430299455</v>
+        <v>1.019844132931153</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>28.39741002377924</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_8_sharpness0.9_contrast0.97.jpg</t>
+          <t>44_B_gamma0.62_contrast1.0_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2378,39 +2384,41 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9251954519113583</v>
+        <v>1.015909905019825</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.000464088435347</v>
+        <v>12.02864044828344</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>12.01781385701001</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_T_gamma0.93_contrast1.0_equalization12.0.jpg</t>
+          <t>45_9_contrast1.0_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2428,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2429,32 +2437,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9185325666940153</v>
+        <v>1.132940635046523</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.06598202852053814</v>
+        <v>4.06063360895328</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1.048107863257013</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_P_contrast0.92_sharpness0.066.jpg</t>
+          <t>46_Q_contrast1.1_brightness4.1_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2470,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2473,30 +2479,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9062257982361699</v>
+        <v>0.6103598114270824</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8311015233812028</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0.3797950875770774</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H48" t="n">
-        <v>15.71686895483978</v>
+        <v>0.4790851535963161</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_I_gamma0.91_sharpness0.38_equalization16.0.jpg</t>
+          <t>47_B_gamma0.61_contrast0.83_sharpness0.48.jpg</t>
         </is>
       </c>
     </row>
@@ -2515,30 +2521,32 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8441595913904404</v>
+        <v>0.9695845015957936</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.537908321371156</v>
+        <v>16.75344633686797</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>25.48628266566642</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_C_contrast0.84_sharpness0.54_equalization25.0.jpg</t>
+          <t>48_C_contrast0.97_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
